--- a/infra/ml/Azure_Service_Plan_Option.xlsx
+++ b/infra/ml/Azure_Service_Plan_Option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MHB5544/Documents/github.com/iac-azure-cloudsizing/infra/ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C681812-A0A4-6744-B5AE-80C87D215256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCEDD7-A0B0-3D4B-999C-AD86AE8C499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="2340" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2360" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Tiers" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>datetime</t>
   </si>
@@ -104,6 +104,51 @@
   <si>
     <t>Premium v3 P3V3</t>
   </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>P0V3</t>
+  </si>
+  <si>
+    <t>P1V3</t>
+  </si>
+  <si>
+    <t>P2V3</t>
+  </si>
+  <si>
+    <t>P3V3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>P1V2</t>
+  </si>
+  <si>
+    <t>P2V2</t>
+  </si>
+  <si>
+    <t>P3V2</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,7 +214,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,23 +517,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,30 +542,33 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -527,264 +576,306 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1.75</v>
-      </c>
       <c r="E3">
+        <v>1.75</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>250</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>250</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>250</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>250</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1.75</v>
-      </c>
       <c r="E10">
+        <v>1.75</v>
+      </c>
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3.5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>50</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3.5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>250</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>250</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>250</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30</v>
       </c>
     </row>
